--- a/CSV/openpyxl/myWorkbook.xlsx
+++ b/CSV/openpyxl/myWorkbook.xlsx
@@ -7,11 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tabelle 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Tabelle 21" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,14 +414,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B1" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>116</v>
+      </c>
+      <c r="D1" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>132.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -445,58 +460,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>